--- a/data/hotels_by_city/Dallas/Dallas_shard_115.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_115.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="895">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Clint R</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Appeared to be clean. Service was good. Hotel is older and it shows. Doesn’t have USB chargers. Also older bathrooms and carpet. By itself on a large lot so seems quiet. I would stay again. Can easily Miss sign to turn in however can next next road and get into parking lot.More</t>
   </si>
   <si>
+    <t>培涵 林</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r579036995-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>May 9, 2018</t>
   </si>
   <si>
+    <t>Adell L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r577748935-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>Very clean room, comfortable beds, good breakfast, great location, great staff. Came for business trip, Great Price. Nice pool with hot tub. Great for families. Would reccomend to family and friends. Would definitely stay again. More</t>
   </si>
   <si>
+    <t>Matt N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r575822806-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>The staff were very helpful and accommodating. They were friendly and chatty, the facility was in nice clean condition. The property (grass/lawn/etc) left something to be desired, it looked pretty barren and didn’t seem very inviting, but the interior of the hotel did not disappoint. If I were to travel to the location I would stay here again. I guess a negative would be though that they would not price my room on a military rate because I had booked through a travel website. Which I felt was unfair because I never paid the website, and the military rate would have been lower than what I booked at. KnowinG that now, Next time I would book through the hotel directly.More</t>
   </si>
   <si>
+    <t>Willy78746</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r575281688-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -276,6 +291,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Kelli_Kel67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r569365223-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>Responded April 6, 2018</t>
   </si>
   <si>
+    <t>Ashwin M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r568472007-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -312,6 +333,9 @@
     <t>Treated to excellent service by the staff and the rooms were very clean. Front desk staff were very responsive to accommodate us. Would definitely stay at this location again when going through Fort Worth. More</t>
   </si>
   <si>
+    <t>Jackie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r565303980-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -339,6 +363,9 @@
     <t>We stayed here while on a road trip. The hotel was very nice; we were upgraded to a jacuzzi suite, which was really enjoyable after driving all day. The rooms were large and we had a balcony. The free breakfast was also very good and lots of variety.More</t>
   </si>
   <si>
+    <t>Jodeegu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r559938382-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -363,6 +390,9 @@
     <t>I visited in Feb 2018 with my husband and 14-year-old daughter. We show at the Fort Worth Stock Show each year and like to stay nearby on the last weekend. We chose Country Inn and Suites because it’s only a few miles away by freeway, so it was conveniently located. Check-in was quick and easy, the desk clerk friendly. Our room was comfortable and attractive, with a balcony overlooking the pool. I wish they had an indoor pool, but I knew they didn’t when we made our reservation, so that’s more of a wish than a complaint. They did have a basic work out room with clean and well maintained equipment. The entire hotel was clean, with no obvious problems.  Even though it was obvious they were very full, it was quiet.  Breakfast was typical hotel breakfast buffet with precooked omelet-type egg patties and sausage. I would have preferred eggs without peppers, with cheese or pico available to be added if wanted, and a meat option besides sausage, but my husband enjoyed them. It also included a selection of breads, cereal, waffles, yogurt, and fruit, as well as coffee, tea, milk, and juices. It was amply stocked and neatly kept. All staff members with whom we had contact were friendly and courteous. We enjoyed our stay and will probably stay next year. More</t>
   </si>
   <si>
+    <t>andcra</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r559914692-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -384,6 +414,9 @@
     <t>We stayed one night at Country Inn &amp; Suites this time. We consider them our home away from home when traveling. Our visit was a good experience as well. The room was warm and clean and the bathroom was very clean as well. We also enjoyed the hot breakfast in the morning.More</t>
   </si>
   <si>
+    <t>Jason J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r538784966-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -411,6 +444,9 @@
     <t>This was by far the most interesting trip to the metroplex I have ever had. I was traveling with a college athletic team. The AD and I drove seperately and when we checked in we got rooms next to each other and she noticed that her door was still open. I went in to the room with her and there was a half full Coke bottle sitting on the dresser and a man sleeping on the sofa!!!!!! No luggage!!! Nothing other than that Coke bottle. We knocked on the bathroom door and that startled him and us!!! He left in a big hurry!! So we get the rooms changed and then a room with some of our team members in it gets walked into by somebody that had a key for that room as well. Needless to say it was not a good start!!! However, the staff was very gracious and most apologetic and made every effort to rectify the situation. I hope they got the bugs worked out and that everything gets better. It was a very clean hotel and the breakfast was more than adequate. Overall good experience but just that shaky start left a little sour taste in all our mouths.More</t>
   </si>
   <si>
+    <t>PompeyMike53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r538538973-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -441,6 +477,9 @@
     <t>Stayed for 2 days while visiting Fort Worth and Dallas, took a bit of finding after driving up and down South Cherry Lane but was well worth finding. The Reception staff were very helpful and friendly. The room was very clean and well equipped and the breakfast was plentiful with lots of choice. The only negative is that there are no restaurants in the vicinity but the hotel does supply a list of nearby establishments that will deliver food, if you need.More</t>
   </si>
   <si>
+    <t>fcs659pa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r534458753-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -456,6 +495,9 @@
     <t>Responded October 24, 2017</t>
   </si>
   <si>
+    <t>NeoPotter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r532771358-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -471,6 +513,9 @@
     <t>Responded October 16, 2017</t>
   </si>
   <si>
+    <t>209lenardr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r531533018-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -486,6 +531,9 @@
     <t>Responded October 10, 2017</t>
   </si>
   <si>
+    <t>dont324</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r528415249-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -513,6 +561,9 @@
     <t>I was attending the APHA World Championships and this hotel was less than 10 minutes away and reasonably priced. Though it seems to be an older hotel that has been remodeled it was clean with good staff that went out of their way to care for their customers.More</t>
   </si>
   <si>
+    <t>NYCfanAustin_TX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r528051813-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -531,6 +582,9 @@
     <t>Our family reunion room block was prearranged, so reservations were handled smoothly. The rooms were recently redone and in excellent condition.  The staff was friendly, courteous and efficient.  Complimentary breakfasts were great and dining for other meals is only a short drive away.  It is a pet friendly property and fulfilled our needs for one!  We definitely plan to return next year and probably many more!More</t>
   </si>
   <si>
+    <t>cousincamp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r526899133-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -555,6 +609,9 @@
     <t>Enjoyed our stay.  Staff was helpful, room clean.. breakfast bar had a nice variety of items.  Location was easy for the Will Rogers Memorial Center.   We found the hotel a great value for our family - this was our 2nd time to stay her.  Will book again.More</t>
   </si>
   <si>
+    <t>Justin C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r526052538-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -573,6 +630,9 @@
     <t>I when to the front desk to ask if i could check out early with a refund around 12:15pm because my room is very humid.  Amanda said well it feels fine to me (very rudely).  I told her it doesn't to me she said she'd have to contact her gm I asked to and she rolls her eyes.  Her gm says he will refund my 89.00 for tonight and have to charge me 99.00 plus taxes and fees.  I guess he believes that I am an idiot.  Very humid i already changed rooms once.More</t>
   </si>
   <si>
+    <t>Cynthia G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r525844585-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -597,6 +657,9 @@
     <t>Reservation for 8 rooms and meeting room. Only 1 mix up with rooms but was resolved quickly when brought to their attention.  Rooms and common area were clean and comfortable. The kids enjoyed the clean pool.  GM Harry introduced himself to most of us and asked if there was anything we needed and thanked us for choosing them. Our group voted to stay here again next year. Harry told us they were going to be doing some updating and we would enjoy it even more next year. We look forward to returning. More</t>
   </si>
   <si>
+    <t>K6556LVericv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r520340279-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -615,6 +678,9 @@
     <t>Responded September 3, 2017</t>
   </si>
   <si>
+    <t>towi203</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r517844165-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -630,12 +696,18 @@
     <t>Responded August 27, 2017</t>
   </si>
   <si>
+    <t>myrar508</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r517882149-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>517882149</t>
   </si>
   <si>
+    <t>maryaL1397JI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r513924652-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -651,6 +723,9 @@
     <t>Responded August 17, 2017</t>
   </si>
   <si>
+    <t>kathleensR8441NM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r512069181-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -669,6 +744,9 @@
     <t>Responded August 16, 2017</t>
   </si>
   <si>
+    <t>smcd91</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r493612354-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -696,6 +774,9 @@
     <t>We were traveling so we showed up around 11PM. We reserved a room earlier in the day. The room we were assigned had a broken air conditioning unit. We attempted to sleep through all the banging coming from the air conditioning unit but it was obnoxious. Called front desk to change rooms, which the man required us to go down to the front desk... he put us in another room (upgraded to a balcony room - all we wanted was a good nights rest) Then the key didn't work so back down we went to the front desk. Finally get into the second room and the air conditioning was broken again. We put the unit on fan without cooling and it was ok. No cost reduction for all the hassle.Breakfast options were terrible. No selection. Will not be staying here again or recommending.More</t>
   </si>
   <si>
+    <t>H2196NKjanicem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r492911784-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -711,6 +792,9 @@
     <t>Responded June 14, 2017</t>
   </si>
   <si>
+    <t>235cieraf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r489870509-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -738,6 +822,9 @@
     <t>I came out of town for my best friends wedding so this hotel was selected for me. When I arrived at the hotel they booked my reservations for the wrong dates so they had given my room away and then charged me a no show fee. I had to stay the first night in my best friends mothers room. The following night I finally got a room that they still over charged me for because we were to get the discounted rate that she had worked out with the hotel because of the event and the people she had coming. They had no compassion about fixing the problem so it was a it will get fixed when I feel like it kind of situation!More</t>
   </si>
   <si>
+    <t>jksman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r487547308-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -762,6 +849,9 @@
     <t>Was in town with the family for a basketball tournament and stayed at this location for two nights and was very pleased. The manager was very friendly and recommended various places for us to go eat. The rooms were nice and the beds were comfortable. They offer breakfast and it was nice and warm which the kids really seemed to love. Will definitely be staying at this location again in the future.More</t>
   </si>
   <si>
+    <t>Laura C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r486611392-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -783,6 +873,9 @@
     <t>I booked a two night stay and paid in advance. My sister passed away the first night I was there and I had to leave at 6:00 in the morning. I have been trying since March 2017 to get a refund for the night I did not stay. I explained why I had to leave early initially and with each correspondence. I was first told I would get my refund after it was processed but after waiting several weeks I asked again and they denied saying that and that I did stay my two nights. But, I did not stay two nights and am owed a refund for the night I didn't stay. I am still attempting to get my refund and it is now more the principle of the matter.More</t>
   </si>
   <si>
+    <t>923dorothyb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r486140328-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -798,6 +891,9 @@
     <t>Responded May 24, 2017</t>
   </si>
   <si>
+    <t>O6342UCjamieh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r485111079-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -813,6 +909,9 @@
     <t>Responded May 18, 2017</t>
   </si>
   <si>
+    <t>Maia K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r485072166-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -828,6 +927,9 @@
     <t>Comfortable rooms, beds and bedding and very accommodating staff. The breakfast is definitely a benefit. The location is great - easy highway access and close to many  sites of interest in Fort Worth.  I will stay there again. Thank you! More</t>
   </si>
   <si>
+    <t>Atraveler3236</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r485059357-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -843,6 +945,9 @@
     <t>I definitely will recommend family and friends to stay here when they visit Fort Worth. The manager and staff were extremely helpful with all questions. The room was cool and comfortable. Breakfast was great!More</t>
   </si>
   <si>
+    <t>jennifersN1726ZU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r484657567-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -852,6 +957,9 @@
     <t>05/16/2017</t>
   </si>
   <si>
+    <t>Garner C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r484504137-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -870,6 +978,9 @@
     <t>I recently stayed at this hotel for the weekend. I could tell they remodeled since rhe last time I stayed, and it is a great impeovement. The front desk workers and the housekeepers were friendly and accomadated us well. Breakfast was as expected, overall great place to stay in Fort Worth.More</t>
   </si>
   <si>
+    <t>marytodd72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r483767897-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -879,6 +990,9 @@
     <t>05/12/2017</t>
   </si>
   <si>
+    <t>AnoopandLata</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r483346220-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -888,6 +1002,9 @@
     <t>05/10/2017</t>
   </si>
   <si>
+    <t>636casandrab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r482390830-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -897,6 +1014,9 @@
     <t>05/07/2017</t>
   </si>
   <si>
+    <t>Kristal Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r476884085-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -918,6 +1038,9 @@
     <t>Late arrival-very friendly staff at front desk.  Pool and spa were relaxing. Quiet room; cold AC; lots of channels on television; great showerhead/small bathroom; microwave/fridge; COMFORTABLE mattress.  Slept in so we did not have breakfast, but looked greatMore</t>
   </si>
   <si>
+    <t>deborar7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r475144138-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1050,9 @@
     <t>04/12/2017</t>
   </si>
   <si>
+    <t>sstraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r474423264-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -945,6 +1071,9 @@
     <t>My wife and I, along with two of our grand kids stayed here for three nights. When I reserved the room, I requested an accessible room, since my wife uses a wheel chair.When I was checking in, they did not have us in an accessible room and said they had none available. They did give us an upgrade to a suite, which was accessible, at no additional charge. The suite was nice, although it could have been laid out better. and a bit brighter, the door to the bathroom was quite close to the desk, so any time the door needed to be closed, I would need to move the chair in closer to the desk. Not a deal breaker, just a nuisance for whoever was sitting at the desk. We had a small, but nice outside balcony overlooking the pool. The grand kids enjoyed sitting out there, wishing they could go swimming!The breakfast was average for a motel; as seems common, they could use more tables to sit at. Overall, it was a pleasant stay and the cookies at the front desk were tasty!More</t>
   </si>
   <si>
+    <t>adammatthewm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r474362998-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -960,12 +1089,18 @@
     <t>I would only recommend having USB chargers on outlets as well staff and personnel where friendly and had a very respectable quality the breakfasts was amazing and the time they had was very reasonable More</t>
   </si>
   <si>
+    <t>W2297PAvirginias</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r474456059-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>474456059</t>
   </si>
   <si>
+    <t>Robert H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r473651207-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -984,6 +1119,9 @@
     <t>We came in town for the body building comp and didn't realize that there are 2 country inn and suites in Fort Worth. This one on cherry lane is the "west Fort Worth". Amanda met us at the front desk and had us ready to check in. The room was still being cleaned so she gave us directions to a place to eat lunch. Amanda was so helpful and very friendly. Upon returning to the hotel. She asked if we like the dinner" west side dinner " must if your in town. Got to our room and it was very nice and very clean!! The air was on and the room was cooling off. The room has. A small refrigerator, microwave and coffee maker. The pool was open and was very clean and nice. The breakfast the next morning was served from 6-9am and it was great. Hot food, waffles, eggs and cold breakfast as well. I payed $121 for the nigh in a double queen room. A very nice area and great room rates compared to down town(this was 8 miles away from downtown) come and see Amanda at country in &amp;a suites in west Fort Worth she will take good care of ya!!More</t>
   </si>
   <si>
+    <t>amandarL7989PS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r472985236-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -993,6 +1131,9 @@
     <t>04/05/2017</t>
   </si>
   <si>
+    <t>zinaustin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r469606188-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1014,6 +1155,9 @@
     <t>Excellent hotel during my visit to Fort Worth for spring break. Props up to the front desk for helping me and my friends find great dinner spots. During our stay, we didn't encounter any problems, just friendly faces.More</t>
   </si>
   <si>
+    <t>Akm8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r467549459-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1032,6 +1176,9 @@
     <t>My boyfriend and I were on a road trip and went through Fort Worth. We decided to stay slightly out of the city at the country inn and it was excellent. Excellent service, clean rooms, a great location, and a great breakfast. Worth the stay and it is not far from downtown and the stockyards. Overall, excellent experience. More</t>
   </si>
   <si>
+    <t>Karmin J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r464577811-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1050,6 +1197,9 @@
     <t>This is a clean, comfortable hotel. The front lobby staff are friendly and helpful. The room is well appointed with microwave,  refrigerator,  coffee maker and ironing board.  There is a hair dryer bu it's not much. The bed, pillows and linens are comfy. The only negative is the noise.  We stayed on the 3rd floor and could hear people talking in the parking lot. You hear all the car noise and the airplanes. The hotel is right in the flight path. But if I needed to stay in this area again, I'd stay here.More</t>
   </si>
   <si>
+    <t>725morrism</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r464426483-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1062,6 +1212,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>807juliog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r463632354-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1071,6 +1224,9 @@
     <t>02/28/2017</t>
   </si>
   <si>
+    <t>singprabha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r462101785-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1098,6 +1254,9 @@
     <t>This hotel was just lovely! Everyone who works there is very friendly and the room was just awesome! We were on the third floor and had a huge bed (so comfy!) and a jetted tub! Breakfast was great, too! If you need to stay in Fort Worth, consider staying at Country Inn! You get what you pay for and then some!! We'd definitely stay here again!! More</t>
   </si>
   <si>
+    <t>carolmR4055DZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r461176546-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1116,6 +1275,9 @@
     <t>We stayed there for 4 days for the Worlds Greatest Horseman competition and it was great. Very clean. The hot breakfast was good with alot of choices. Comfortable beds and reasonably quiet. Staff was very friendly. We will stay there again when we come back next year.More</t>
   </si>
   <si>
+    <t>Christian B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r457885867-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1137,6 +1299,9 @@
     <t>The staff was more than helpful for anything we needed.  Full hot breakfast was a great addition in the mornings before heading to the show barns.  Amanda, the front desk attendant, would see us coming in late and have some breakfast ready for us before the regular time.  Such a life saver!  Clean rooms, comfortable beds and we will be back!More</t>
   </si>
   <si>
+    <t>Nohelly V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r457696380-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1155,6 +1320,9 @@
     <t>I really enjoyed my stay here. Room was very spacious and the bed was so so comfortable!They have a good breakfast selection, restaurants and entertainment not to far of a drive from the hotel. Everyone was very personable and accommodating! Will definitely be coming back. More</t>
   </si>
   <si>
+    <t>richardsP2141XI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r456085356-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1173,6 +1341,9 @@
     <t>Room was clean and nicely appointed. This particular property had an invalid lift for the pool. Something I had never seen before at a hotel. Breakfast was OK. Eggs were a bit bland and I would prefer bacon to sausage.More</t>
   </si>
   <si>
+    <t>bhangu11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r455716269-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1188,6 +1359,9 @@
     <t>Friendly staff, good breakfast selection, very clean, comfortable beds. We only stayed one night but would suggest this hotel to anyone Great value for the price of the room. When we come into this area we will diffently stay here againMore</t>
   </si>
   <si>
+    <t>brdputr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r454301022-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1206,6 +1380,9 @@
     <t>took this location for convenience to visit my home town and go to the game on Jan 15. everything was excellent. it was clean, well kept, recently renovated and staff was always friendly. breakfast was always hot, fresh and plentiful. we will go back.More</t>
   </si>
   <si>
+    <t>Christine T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r453644506-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1233,6 +1410,9 @@
     <t>Thank you for the staff at the hotel for making our Christmas Holiday wonderful! The lobby was so beautifully decorated and the entire staff made our visit to Texas extra special! We'll be staying here every time we come to visit Texas.More</t>
   </si>
   <si>
+    <t>Joleen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r434033295-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1260,6 +1440,9 @@
     <t>Wasn't sure but have stayed at many Country Inns &amp; Radison Hotels and was not disappointed in this hotel. Very close to where we had an event and easy to find.The hotel looked brand new but it isn't, just a recent remodel. The room was very cleanand the mattress was very comfortable for a great night's sleep. The hotel staff were very pleasant and helpful. My husband said the breakfast was enough to fill him up and was quite good.More</t>
   </si>
   <si>
+    <t>midorif947</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r433848327-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1269,6 +1452,9 @@
     <t>11/01/2016</t>
   </si>
   <si>
+    <t>Jeff W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r431221388-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1287,6 +1473,9 @@
     <t>I picked this hotel mainly on the special price that I got from hotels.com. And for the price that I got, it was a good deal. I'm not sure I would have picked it for the regular price that it would have cost. There were a couple of things I wasn't crazy about. Although it isn't listed on the website, there is a spa/hot tub connected to the pool but it didn't seem to be working. I checked it a couple of times and the water was cold. Also, the fitness room was closed for painting/maintenance. In addition, one of the front desk staff was rather sarcastic with me when I went to purchase a few snacks. I have no problem with sarcasm but it's not something I do when I meet someone for the first time.More</t>
   </si>
   <si>
+    <t>Eric L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r429564244-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1302,6 +1491,9 @@
     <t>Responded October 20, 2016</t>
   </si>
   <si>
+    <t>davejones42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r428948775-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1320,6 +1512,9 @@
     <t>The personnel are very friendly. Although they were still working on the remodel it was no inconvenience, they were almost done just trim and the like. They let us use the pool a little later than normal because the hot tub wasn't heated yet. We had a great stay.More</t>
   </si>
   <si>
+    <t>Larry B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r426516184-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1335,6 +1530,9 @@
     <t>Responded October 12, 2016</t>
   </si>
   <si>
+    <t>raymons779</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r425573643-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1356,6 +1554,9 @@
     <t>Staff was great, the room was great, the food was good, the mattress was AMAZING.  The only things I would suggest is an indoor pool and more power outlets in the room, or a charging station beside the bed.More</t>
   </si>
   <si>
+    <t>travelingalColorado</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r424858559-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1371,6 +1572,9 @@
     <t>Responded October 10, 2016</t>
   </si>
   <si>
+    <t>YvonneHein</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r420552089-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1395,6 +1599,9 @@
     <t>Great staff, good breakfast selection, very clean, comfortable beds. We only stayed one night but would suggest this hotel to anyone Great value for the price of the room Would stay again if in the areaMore</t>
   </si>
   <si>
+    <t>Debbi J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r418193694-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1410,6 +1617,9 @@
     <t>Responded September 18, 2016</t>
   </si>
   <si>
+    <t>Dena H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r409113559-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1428,6 +1638,9 @@
     <t>Responded August 26, 2016</t>
   </si>
   <si>
+    <t>Dawn H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r403939572-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1443,6 +1656,9 @@
     <t>Responded August 15, 2016</t>
   </si>
   <si>
+    <t>Clive Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r402069304-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1470,6 +1686,9 @@
     <t>Staff was very friendly. The room were nice, clean and comfortable. Looked like this hotel is just finishing up it's renovation. We did use the pools. They were clean. The hot tub is the same temperature as the pool. The water circulates between the two. That was a little disappointing. Average fitness center and breakfast. Would gladly stay again.More</t>
   </si>
   <si>
+    <t>Kristen S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r394550816-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1479,6 +1698,9 @@
     <t>07/19/2016</t>
   </si>
   <si>
+    <t>Adam W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r393407989-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1488,6 +1710,9 @@
     <t>07/16/2016</t>
   </si>
   <si>
+    <t>Janice M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r391952390-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1503,6 +1728,9 @@
     <t>Responded July 14, 2016</t>
   </si>
   <si>
+    <t>luv2vacay25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r387129456-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1524,6 +1752,9 @@
     <t>I had a great experience with this convenient hotel! The hotel has an updated look and looks brand new with the renovations. The room was spacious and clean and breakfast was satisfying! The staff was accomadating and nice. Will definitely stay here again.More</t>
   </si>
   <si>
+    <t>Simar S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r386141900-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1542,6 +1773,9 @@
     <t>The stay was great. Despite going though renovations, it did not negatively affect my stay at all, and the front desk was very accommodating. The breakfast was good, and the room quality was excellent, would recommend.More</t>
   </si>
   <si>
+    <t>William R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r385453927-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1551,6 +1785,9 @@
     <t>06/23/2016</t>
   </si>
   <si>
+    <t>Manoj S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r385017256-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1572,6 +1809,9 @@
     <t>Nice a clean beds, bathroom with fresh smell. Daytime renovation was ongoing, but did not disturb me. Manager was very attentive. Good breakfast and morning coffee. I will definitely stay on my return trip to Fort Worth.More</t>
   </si>
   <si>
+    <t>kcalla212</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r355741023-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1599,6 +1839,9 @@
     <t>We had a great stay at this location! We had stopped at this location during our road trip to California, and we enjoyed it. Our room was clean, the staff was great, and there were a lot of food options for breakfast in the morning. Free wifi is always a plus for us while traveling. It was definitely affordable and the staff was useful--we needed to print off a few things for work and the front desk happily helped us with that.More</t>
   </si>
   <si>
+    <t>Suellen M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r355267729-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1620,6 +1863,9 @@
     <t>Came here to visit family. Our stay here was grand. The staff was wonderful. Front desk helped us find fun activities for the family as well as great restaurants to eat at. The breakfast was great the the breakfast lady lupe was on the spot. She had food out at a steadily manner. It was delicious. Housekeeping was friendly and helpful. Kept our room clean and helped us when we needed extra towels. We will definitely stay here again when we come back to visit family again. More</t>
   </si>
   <si>
+    <t>neenasander</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r355161374-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1641,6 +1887,9 @@
     <t>I've stayed at this particular location several times and this time I found out they recently switched from Holiday Inn to Country Inn and Suites! The hotel is under new management and I definitely see positive changes. Check in and check out process is fast and easy. Room rates are affordable and plus point is the amazing breakfast. The rooms are also very clean and accommodating. The staff was also very helpful during my stay. Definitely recommended to all my family and friends. More</t>
   </si>
   <si>
+    <t>Howier72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r354531471-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1659,6 +1908,9 @@
     <t>Hotel  next  to I 30  Ft. Worth. Close to downtown so no need to pay extra to stay in downtown area  Staff went out of their way to make you feel welcome and do everything possible for you to make your stay comfertable..More</t>
   </si>
   <si>
+    <t>Mandeeplove</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r354366238-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1677,6 +1929,9 @@
     <t>Everything was wonderful . Check in and check out was simple and all the staff was very helpful and friendly all the time. Hotel was affordable , cozy and close to everything . Perfect location . The room was very clean so the bathroom . The bed was very comfortable and clean. Breakfast was amazing. The selection of the food was great and delicious . I enjoyed my stay.More</t>
   </si>
   <si>
+    <t>Bill S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r354247152-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1686,6 +1941,9 @@
     <t>03/09/2016</t>
   </si>
   <si>
+    <t>Perdeep M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r353171881-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1704,6 +1962,9 @@
     <t>We enjoyed our staying there. I found the room and the bathroom was very clean, particularly impressed with the cleanliness overall, including the elevator smelled fresh. Friendly, helpful, and knowledgeable staff. Well stocked breakfast, great coffee. We definitely plan to stay there on my next visit.More</t>
   </si>
   <si>
+    <t>shazk71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r327277383-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1725,6 +1986,9 @@
     <t>Stayed at this hotel last weekend as we were visiting the Stockyards and wanted convenience without being downtown. Great place to stay and only about 10 miles from the stockyards. Looked at other hotels closer to the Stockyards with a free shuttle but they were a lot more expensive and most of them charge for parking. Even with the shuttle it doesn't work out to be more economical especially when they stop running at a certain time of the night. If you are going down there during the day then this may be for you.This hotel was in a great, quiet location and was your average Holiday Inn Express. Great service, comfortable beds and pillows and a very substantial breakfast not to mention clean rooms. Parking was no drama and of course free. Would definitely recommend this hotel to anyone planning a visit to Fort Worth and the Stockyards.More</t>
   </si>
   <si>
+    <t>G S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r305500192-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1752,6 +2016,9 @@
     <t>I stayed in this Hotel for 2 nights -  July 22 and July 23rd, 2015.No Wi-Fi service- and no apology from staff or owners. No compensation either.Called in advance for reservation - 30 min on the phone with representative. I  had cash, credit card, and Gold Member points - none were accepted at check -in - because of their system flaws.Over 1 hour long check in - which hotel manager of hotel called "a very timely manner".Dirty rooms, horrible management.I am a Gold Level Member, spent over $10,000 staying Holiday Inn Hotel Chain.I will never stay at this particular hotel again - 2730 Cherry Lane, Fort Worth, TX, 76116More</t>
   </si>
   <si>
+    <t>campcookie66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r297358998-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1770,6 +2037,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>MHTruett</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r244563455-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1788,6 +2058,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>CB1113</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r237901019-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1815,6 +2088,9 @@
     <t>Nothing outstanding but for a quick, last minute business trip, it worked. King room was comfortable, but definitely on the plain side (did like extra pillows on the otherwise firm bed).  Bathroom was small but fine for me. Breakfast buffet was just enough with plenty of juice &amp; coffee. Probably wouldn't stay there with the family, but for the quick business trip, it was close to the markMore</t>
   </si>
   <si>
+    <t>Patti W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r198384740-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1836,6 +2112,9 @@
     <t>I enjoyed my recent stay at this hotel. It is right off the highway, but not so close to downtown that  you get in all the traffic. Took less than 10 minutes to go to downtown. Some people get concerned when they see the photo that shows the lower floor rooms opening up to the outside. This didn't concern me, but when we got there we realized we were on an upper floor so it wasn't even an issue. The bottom floor rooms are great to go right out to the pool.  The free breakfast is average, but hey, it's free.  The best part of this visit was the staff.  They are all extremely friendly, especially the front desk help. This is an older hotel, but the room was great. Nice and clean, and great beds. Oh, and the second best part of it, it was a great price!More</t>
   </si>
   <si>
+    <t>Michelle C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r196183058-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1854,6 +2133,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Patrick Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r187745706-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1875,6 +2157,9 @@
     <t>I must say, nothing special about the quality of the hotel and the staff because I have come to expect it from the express...always good!  I really like the beds because they are always comfortable.  I really liked they had bacon 2 of the 3 mornings I was there.  The normal stuff for breakfast, micro omelette, sausage etc.I can't say it is in a great location as far as resturaunts and site seeing, but it worked for work.  There is a Parton Pizza across the street that does a buffet that was ok.I did not elect for room service so I can't review.  I don't like them in my room to clean/organize every day...ridiculous!  I usually do it once a week.More</t>
   </si>
   <si>
+    <t>Donald C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r180782841-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1902,6 +2187,9 @@
     <t>I am a big fan of Holiday Inn Express, and have stayed here before, so I was planning on a fine stay.  Had trouble with check in, was only offered a bottle of water as a rewards member, and the mattress was too soft.  I will use the hotel again when I return to the area (easy access) but will hope for better results.More</t>
   </si>
   <si>
+    <t>achristie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r179620737-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1929,6 +2217,9 @@
     <t>My father had emergency surgery - I called the hotel to cancel my reservation, knowing it was not refundable. I had reserved with priority points and $40 charged to my credit card. Hotel charged me another $125 as a no show.Had a Phone conversation with manage after I received my credit card bill - it did not go well. I felt since I was courteous in letting the hotel know I was unable to keep this reservation, they should have told me they were going to charge me an additional $125.Priority club refunded my $40 as a good will gesture. I thought Holiday Inn would not allow the manager to charge me an additional $125 - I was wrong.That's OK - next time I need a hotel room, I won't be staying at ANY Holiday Inn and my Priority Card has been cut up and thrown away.More</t>
   </si>
   <si>
+    <t>GardenFanGeorgia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r175454353-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1947,6 +2238,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Madridista078</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r168803853-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1968,6 +2262,9 @@
     <t>This hotel wasn't the Holiday Inn Express Hurst my sister and I were looking for.  We stayed there the previous year after a road trip from GA and it's the best hotel ever!The front desk staff was very nice and very helpful in finding a place to order pizza at a late hour on a Thursday.  I must say the actually sold us on the property.As for the rooms they are very clean and very spacious.  The overall appearance of the hotel is very good.However the only negative to the location is the actual location.  I wanted to get something to drink and being 10 pm on a Thursday, you would think there would be more locations available, however there weren't any around.  Thank goodness for GPSMore</t>
   </si>
   <si>
+    <t>Vivian M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r160620049-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1986,6 +2283,9 @@
     <t>After a long day of travel and work I could not ask for more, when I arrived to the hotel I was greeted by a very friendly clerk that had my room key ready so I could go to my room and rest. When I got to the room it was a very spacious suite with 2 beds and a sofa sleeper (I really needed 1 bed but the extra room was fantastic and let me thinking about bringing my family on our next trip). I could not believe the cleanliness of the room and the bathroom overall. Next morning after getting a hot shower went down to have breakfast and I was delighted with all the options available, from cereal and milk to sausage patties and cheese omelettes, the breakfast lady was also very nice in asking me if I needed something else (like if I could ask for more). After breakfast I was ready to continue with my busy day and just had to say far well at the front desk since the bill was zeroed out and sent to my room already. All in all a great experience and I am already telling my boss to send anybody coming to this fort worth area to stay at this great hotel. Keep up the good work and service!More</t>
   </si>
   <si>
+    <t>Lstew55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r160545430-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1998,6 +2298,9 @@
     <t>All was as I expected. Quick easy check-in.  Quiet room as requested.  Chocolate Chip cookies put out for consumption about 4:30 (and they were good).  The room was large. It was not well designed (you could not open the door to the room unless the bathroom door was shut and the entry way was so narrow, it was difficult to use the baggage cart, but somehow we managed.I thought the bed was very comfortable and the towels were awesome.  I would stay there again.</t>
   </si>
   <si>
+    <t>glenphy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r159796447-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2025,6 +2328,9 @@
     <t>The hotel was recently renovated, where the rooms are very spacious and were present the bed, a sofa with a coffee table and a desk. They are equipped with satellite TV, air conditioner, microwave and refrigerator.The cleaning of the rooms is good, even if the carpet is not the best hygiene. The cleanliness of the bathroom is decent and the hot had several stains.Breakfast is served on the ground floor, is buffet style and offers a choice quite varied.It 'also has a gym, minimum size, so if you use it for a while you have a little' of claustrophobia.My stay was in winter, so I couldn't use the swimming pool, located outdoors on the back of the hotel.Only note on the hotel staff. Alternated several people at the reception and not all have been educated and available.More</t>
   </si>
   <si>
+    <t>L C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r152526202-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2040,6 +2346,9 @@
     <t>I have stayed at quite a few hotels in this area. They have all been helpful and friendly. I think this hotel surprised me. It is older and off 30 just a bit more.  I wasn't sure how well maintained it would be.  They have done a very nice job of remodeling and maintaining this hotel. Do not be worried at all.  It is nice and quite, and they go out of their way to supply a plentiful breakfast, even when just a few guests are staying there. The rooms were clean, the beds comfortable, and the staff helpful.</t>
   </si>
   <si>
+    <t>Nancy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r144806602-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2058,6 +2367,9 @@
     <t>Stayed at this hotel for three nights this past weekend.  I picked this hotel because we were in town visiting friends and it is located only about two miles from their house.  Everything was great at the hotel from the time we checked in on Friday until we checked out Monday morning.  The shower curtain had a liner that snapped onto the other part of the curtain and it had become unsnapped and we couldn't fix it.  When we left to visit our friends we reported the issue to the front desk clerk and when we returned in a couple hours the curtain was fixed.  The room was clean and the breakfast was hot and good and had a nice variety.  Would definitely stay there again and recommend it to others.More</t>
   </si>
   <si>
+    <t>Jose M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r138347160-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2076,6 +2388,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>Jessica P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r138276483-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2094,6 +2409,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Chris F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r137905843-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2109,6 +2427,9 @@
     <t>I have stayed in several hotels over the years due to my business. This is the great hotel, great location. Room are very  clean, staff was so friendly, Great breakfast and Wi-Fi internet works great no problems whatsoever. They have both wired and wireless!</t>
   </si>
   <si>
+    <t>nitzie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r137294416-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2127,6 +2448,9 @@
     <t>My sister and I came to this hotel to attend a family members funeral.  When I stay at this type of hotel my expectations are for a clean property, a good breakfast and a friendly, helpful staff.  For the most part I was not disappointed but I did have a few problems. The Breakfast Bar was not as well maintained as at other properties I had visited.  It may have been because the hotel was not very full at the time.  Also, the pool maintenance could have been better.  You should not see a lot of dead bugs floating on the water, especially at 11:00AM.  Other than that everything was as expected.  Even though I am a Priority Club Platinum member I was not offered an upgrade to a pool view room.  These are the only rooms that have a balcony and they also overlook the pool (room numbers ending in 07,09,11,19,21 and 23).  I probably should have requested an upgrade at check-in but I had other things on my mind. Considering the hotel was not very full it would have been a nice gesture. There is a Hampton Inn within 1 mile of this hotel and if and when I go back I will probably stay there.More</t>
   </si>
   <si>
+    <t>Miley R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r129590453-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2145,6 +2469,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>stephen r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r129482363-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2163,6 +2490,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>Linda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r122525989-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2181,6 +2511,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>Jackcatscal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r119605347-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2199,6 +2532,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>Brittany B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r119234178-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2214,6 +2550,9 @@
     <t>This Hotel Rips you off on damages even though you didn't do it , you never can prove it wasn't you so they keep charging you by the time they quit charging me for a mattress i didn't ruin it was over 500 dollars. NEVER WILL I STAY AT THIS HOTEL AGAIN!!!!</t>
   </si>
   <si>
+    <t>asumrall</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r117180195-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2232,6 +2571,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>reststop10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r110617722-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2250,6 +2592,9 @@
     <t>January 2011</t>
   </si>
   <si>
+    <t>Vance2644</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r90397493-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2268,6 +2613,9 @@
     <t>November 2010</t>
   </si>
   <si>
+    <t>drivesouth66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r71006942-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2286,6 +2634,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>AustinMan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r49578506-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2307,6 +2658,9 @@
     <t>I recently stayed at this hotel recently while on business in the Ft. Worth Area.  The hotel is located about 5 miles west of downtown Fort Worth and was easily accessible from IH-30.  Check-in and out went smoothly and staff were very friendly and efficient. I stayed in a king suite which consisted of a small sitting area with a couch, coffee table, and desk and an adjacent area with a king-size bed and dresser with a 32" flat screen TV.  The "Virtual Tour: VFM interactive" option on the review page for this site provides a very representative view of the room I stayed in. The room was clean, the bed was very comfortable,  and all of the bed and bath linens appeared to be fairly new and of high quality. The bathroom had a fiberglass tub/shower with a curved shower rod, granite countertop at the sink area, and ceramic tile flooring. The room rate includes a good continental breakfast of the standard breads, fruit, juices, milk, yogurt, coffee, etc. but also includes hot  items like cinnamon rolls, eggs, sausage, biscuits, and gravy. The breakfast area is quite small with only 4 tables and two bar areas situated along the walls of the room so you might feel like you need to hurry up and eat so someone else can have a place to sit. There is a small exercise room with several treadmills, an outdoor pool  and also a...I recently stayed at this hotel recently while on business in the Ft. Worth Area.  The hotel is located about 5 miles west of downtown Fort Worth and was easily accessible from IH-30.  Check-in and out went smoothly and staff were very friendly and efficient. I stayed in a king suite which consisted of a small sitting area with a couch, coffee table, and desk and an adjacent area with a king-size bed and dresser with a 32" flat screen TV.  The "Virtual Tour: VFM interactive" option on the review page for this site provides a very representative view of the room I stayed in. The room was clean, the bed was very comfortable,  and all of the bed and bath linens appeared to be fairly new and of high quality. The bathroom had a fiberglass tub/shower with a curved shower rod, granite countertop at the sink area, and ceramic tile flooring. The room rate includes a good continental breakfast of the standard breads, fruit, juices, milk, yogurt, coffee, etc. but also includes hot  items like cinnamon rolls, eggs, sausage, biscuits, and gravy. The breakfast area is quite small with only 4 tables and two bar areas situated along the walls of the room so you might feel like you need to hurry up and eat so someone else can have a place to sit. There is a small exercise room with several treadmills, an outdoor pool  and also a decent business center. The hotel is located just south of a military runway and you could occasionally hear airplanes as they were landing or taking off.  As several others have noted, the walls seem a bit thin and you can hear some noise from the hallways and from the adjacent rooms. Nothing bad but don't expect absolute quiet when in your room. There are only a few stores and restaraunts in the immediate area but there are many of each within several miles  All-in-all a nice place that I would stay at again when in the area.More</t>
   </si>
   <si>
+    <t>jaytapia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r46143021-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2323,6 +2677,9 @@
   </si>
   <si>
     <t>May 2009</t>
+  </si>
+  <si>
+    <t>Mickey5313</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109143-r28649966-Country_Inn_Suites_by_Radisson_Fort_Worth_West_l_30_NAS_JRB-Fort_Worth_Texas.html</t>
@@ -2848,43 +3205,47 @@
       <c r="A2" t="n">
         <v>37439</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>8043</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2896,41 +3257,45 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37439</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>126177</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2946,51 +3311,52 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37439</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>126178</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -3012,56 +3378,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37439</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>126179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3073,54 +3443,58 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37439</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>126180</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -3142,54 +3516,58 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37439</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>126181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -3211,56 +3589,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
         <v>90</v>
-      </c>
-      <c r="X7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37439</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>126182</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
         <v>95</v>
-      </c>
-      <c r="L8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O8" t="s">
-        <v>89</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3272,56 +3654,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37439</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>68553</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3339,56 +3725,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="X9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37439</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>126183</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>111</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>103</v>
-      </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3400,56 +3790,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37439</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>126184</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -3471,56 +3865,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="X11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37439</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>78607</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="O12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -3538,56 +3936,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="X12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37439</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>126185</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="O13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3601,54 +4003,58 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="X13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37439</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>126186</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -3670,54 +4076,58 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="X14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="Y14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37439</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>126187</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3739,54 +4149,58 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="X15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="Y15" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37439</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>126188</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -3808,56 +4222,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="X16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37439</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>126189</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3879,56 +4297,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="X17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37439</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>126190</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="J18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O18" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3946,56 +4368,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="X18" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="Y18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37439</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>126191</v>
+      </c>
+      <c r="C19" t="s">
+        <v>188</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O19" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -4017,56 +4443,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="X19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37439</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>232</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O20" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4078,56 +4508,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="Y20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37439</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>3561</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O21" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4139,54 +4573,58 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="X21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="Y21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37439</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>126192</v>
+      </c>
+      <c r="C22" t="s">
+        <v>213</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -4208,54 +4646,58 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="X22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="Y22" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37439</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>126193</v>
+      </c>
+      <c r="C23" t="s">
+        <v>220</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="J23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -4277,54 +4719,58 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="X23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37439</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>126194</v>
+      </c>
+      <c r="C24" t="s">
+        <v>226</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="J24" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4346,54 +4792,58 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="X24" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="Y24" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37439</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>126195</v>
+      </c>
+      <c r="C25" t="s">
+        <v>229</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="J25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -4415,54 +4865,58 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="X25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="Y25" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37439</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>126196</v>
+      </c>
+      <c r="C26" t="s">
+        <v>235</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="J26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="O26" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4484,56 +4938,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="X26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="Y26" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37439</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>126197</v>
+      </c>
+      <c r="C27" t="s">
+        <v>242</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="J27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="K27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -4549,54 +5007,58 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="X27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="Y27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37439</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>126198</v>
+      </c>
+      <c r="C28" t="s">
+        <v>252</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="J28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="O28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4616,56 +5078,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="X28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="Y28" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37439</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>126199</v>
+      </c>
+      <c r="C29" t="s">
+        <v>258</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="J29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="K29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="O29" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -4687,56 +5153,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="X29" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="Y29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37439</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>126200</v>
+      </c>
+      <c r="C30" t="s">
+        <v>268</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="J30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="K30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="O30" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4754,56 +5224,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="X30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="Y30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37439</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>454</v>
+      </c>
+      <c r="C31" t="s">
+        <v>277</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="J31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="O31" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -4821,54 +5295,58 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="X31" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="Y31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37439</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>126201</v>
+      </c>
+      <c r="C32" t="s">
+        <v>285</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="J32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="O32" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4890,54 +5368,58 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="X32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="Y32" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37439</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>126202</v>
+      </c>
+      <c r="C33" t="s">
+        <v>291</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="J33" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="O33" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -4959,56 +5441,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X33" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y33" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37439</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>126203</v>
+      </c>
+      <c r="C34" t="s">
+        <v>297</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="J34" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="K34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="O34" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5020,56 +5506,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X34" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y34" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37439</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>126204</v>
+      </c>
+      <c r="C35" t="s">
+        <v>303</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="J35" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="K35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="O35" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5085,54 +5575,58 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X35" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37439</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>126205</v>
+      </c>
+      <c r="C36" t="s">
+        <v>309</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="J36" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="O36" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -5154,47 +5648,51 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X36" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y36" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37439</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>126206</v>
+      </c>
+      <c r="C37" t="s">
+        <v>313</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="J37" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="K37" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="L37" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
@@ -5211,54 +5709,58 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X37" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y37" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37439</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>126207</v>
+      </c>
+      <c r="C38" t="s">
+        <v>320</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="J38" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="O38" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -5280,54 +5782,58 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X38" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y38" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37439</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>126208</v>
+      </c>
+      <c r="C39" t="s">
+        <v>324</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="J39" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="O39" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -5349,54 +5855,58 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X39" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y39" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37439</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>126209</v>
+      </c>
+      <c r="C40" t="s">
+        <v>328</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="J40" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="O40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5418,56 +5928,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X40" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y40" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37439</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>126210</v>
+      </c>
+      <c r="C41" t="s">
+        <v>332</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="J41" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="K41" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="L41" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="O41" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5479,54 +5993,58 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X41" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y41" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37439</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>126211</v>
+      </c>
+      <c r="C42" t="s">
+        <v>340</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="J42" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="O42" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -5548,56 +6066,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X42" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y42" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37439</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>126212</v>
+      </c>
+      <c r="C43" t="s">
+        <v>344</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="J43" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="K43" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="L43" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="O43" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5615,56 +6137,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X43" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y43" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37439</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>126213</v>
+      </c>
+      <c r="C44" t="s">
+        <v>351</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="J44" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="K44" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="L44" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="O44" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -5686,54 +6212,58 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X44" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y44" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37439</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>126214</v>
+      </c>
+      <c r="C45" t="s">
+        <v>357</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="J45" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="O45" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5755,56 +6285,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X45" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y45" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37439</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>8062</v>
+      </c>
+      <c r="C46" t="s">
+        <v>360</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="J46" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
       <c r="K46" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="O46" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5816,54 +6350,58 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X46" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y46" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37439</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>126215</v>
+      </c>
+      <c r="C47" t="s">
+        <v>367</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="J47" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="O47" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5885,56 +6423,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X47" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y47" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37439</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>126216</v>
+      </c>
+      <c r="C48" t="s">
+        <v>371</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="J48" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="K48" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="L48" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="O48" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5946,56 +6488,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X48" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y48" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37439</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>126217</v>
+      </c>
+      <c r="C49" t="s">
+        <v>379</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="J49" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="K49" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="L49" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6007,56 +6553,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X49" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y49" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37439</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>23479</v>
+      </c>
+      <c r="C50" t="s">
+        <v>386</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="J50" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="K50" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="L50" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="O50" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6068,54 +6618,58 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X50" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y50" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37439</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>126218</v>
+      </c>
+      <c r="C51" t="s">
+        <v>393</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="J51" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="O51" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -6137,54 +6691,58 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X51" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y51" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37439</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>126219</v>
+      </c>
+      <c r="C52" t="s">
+        <v>398</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="J52" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="O52" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6206,54 +6764,58 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X52" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y52" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>37439</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>126220</v>
+      </c>
+      <c r="C53" t="s">
+        <v>402</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="J53" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="O53" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -6275,13 +6837,13 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X53" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y53" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
@@ -6294,37 +6856,37 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="J54" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="K54" t="s">
-        <v>357</v>
+        <v>409</v>
       </c>
       <c r="L54" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6346,56 +6908,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X54" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y54" t="s">
-        <v>359</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37439</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>126221</v>
+      </c>
+      <c r="C55" t="s">
+        <v>412</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="J55" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
       <c r="K55" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
       <c r="L55" t="s">
-        <v>364</v>
+        <v>417</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6407,56 +6973,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X55" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y55" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37439</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>32682</v>
+      </c>
+      <c r="C56" t="s">
+        <v>419</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="J56" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="K56" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="O56" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6474,56 +7044,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X56" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y56" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37439</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>126222</v>
+      </c>
+      <c r="C57" t="s">
+        <v>427</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="J57" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
       <c r="K57" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="L57" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="O57" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6535,56 +7109,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X57" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y57" t="s">
-        <v>378</v>
+        <v>433</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>37439</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>126223</v>
+      </c>
+      <c r="C58" t="s">
+        <v>434</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="J58" t="s">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="K58" t="s">
-        <v>382</v>
+        <v>438</v>
       </c>
       <c r="L58" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="O58" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6606,56 +7184,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X58" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y58" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37439</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>126224</v>
+      </c>
+      <c r="C59" t="s">
+        <v>441</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="J59" t="s">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="K59" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="L59" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="O59" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6667,56 +7249,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X59" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y59" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37439</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>126225</v>
+      </c>
+      <c r="C60" t="s">
+        <v>447</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="J60" t="s">
-        <v>392</v>
+        <v>450</v>
       </c>
       <c r="K60" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="L60" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="O60" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -6734,56 +7320,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="X60" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Y60" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37439</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>10087</v>
+      </c>
+      <c r="C61" t="s">
+        <v>454</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>396</v>
+        <v>455</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="J61" t="s">
-        <v>398</v>
+        <v>457</v>
       </c>
       <c r="K61" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
       <c r="L61" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
       <c r="O61" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6801,56 +7391,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>402</v>
+        <v>461</v>
       </c>
       <c r="X61" t="s">
-        <v>403</v>
+        <v>462</v>
       </c>
       <c r="Y61" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37439</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>126226</v>
+      </c>
+      <c r="C62" t="s">
+        <v>464</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>405</v>
+        <v>465</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="J62" t="s">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="K62" t="s">
-        <v>408</v>
+        <v>468</v>
       </c>
       <c r="L62" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6868,54 +7462,58 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="X62" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="Y62" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37439</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>126227</v>
+      </c>
+      <c r="C63" t="s">
+        <v>474</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="J63" t="s">
-        <v>416</v>
+        <v>477</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="O63" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -6937,56 +7535,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="X63" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="Y63" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37439</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>7428</v>
+      </c>
+      <c r="C64" t="s">
+        <v>478</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>417</v>
+        <v>479</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="J64" t="s">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="K64" t="s">
-        <v>420</v>
+        <v>482</v>
       </c>
       <c r="L64" t="s">
-        <v>421</v>
+        <v>483</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="O64" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -7002,54 +7604,58 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="X64" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="Y64" t="s">
-        <v>422</v>
+        <v>484</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>37439</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>19410</v>
+      </c>
+      <c r="C65" t="s">
+        <v>485</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>423</v>
+        <v>486</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>424</v>
+        <v>487</v>
       </c>
       <c r="J65" t="s">
-        <v>425</v>
+        <v>488</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="O65" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -7071,56 +7677,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>426</v>
+        <v>489</v>
       </c>
       <c r="X65" t="s">
-        <v>427</v>
+        <v>490</v>
       </c>
       <c r="Y65" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>37439</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>126228</v>
+      </c>
+      <c r="C66" t="s">
+        <v>491</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>428</v>
+        <v>492</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>429</v>
+        <v>493</v>
       </c>
       <c r="J66" t="s">
-        <v>430</v>
+        <v>494</v>
       </c>
       <c r="K66" t="s">
-        <v>431</v>
+        <v>495</v>
       </c>
       <c r="L66" t="s">
-        <v>432</v>
+        <v>496</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="O66" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="n">
@@ -7138,54 +7748,58 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>426</v>
+        <v>489</v>
       </c>
       <c r="X66" t="s">
-        <v>427</v>
+        <v>490</v>
       </c>
       <c r="Y66" t="s">
-        <v>433</v>
+        <v>497</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>37439</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>3975</v>
+      </c>
+      <c r="C67" t="s">
+        <v>498</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>434</v>
+        <v>499</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>435</v>
+        <v>500</v>
       </c>
       <c r="J67" t="s">
-        <v>436</v>
+        <v>501</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="O67" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7207,56 +7821,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>437</v>
+        <v>502</v>
       </c>
       <c r="X67" t="s">
-        <v>438</v>
+        <v>503</v>
       </c>
       <c r="Y67" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>37439</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>126229</v>
+      </c>
+      <c r="C68" t="s">
+        <v>504</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="J68" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
       <c r="K68" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
       <c r="L68" t="s">
-        <v>443</v>
+        <v>509</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -7278,54 +7896,58 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>437</v>
+        <v>502</v>
       </c>
       <c r="X68" t="s">
-        <v>438</v>
+        <v>503</v>
       </c>
       <c r="Y68" t="s">
-        <v>445</v>
+        <v>511</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>37439</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>126230</v>
+      </c>
+      <c r="C69" t="s">
+        <v>512</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>447</v>
+        <v>514</v>
       </c>
       <c r="J69" t="s">
-        <v>448</v>
+        <v>515</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M69" t="n">
         <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="O69" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="P69" t="n">
         <v>1</v>
@@ -7347,56 +7969,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>449</v>
+        <v>516</v>
       </c>
       <c r="X69" t="s">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="Y69" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>37439</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>126231</v>
+      </c>
+      <c r="C70" t="s">
+        <v>518</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>451</v>
+        <v>519</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>452</v>
+        <v>520</v>
       </c>
       <c r="J70" t="s">
-        <v>453</v>
+        <v>521</v>
       </c>
       <c r="K70" t="s">
-        <v>454</v>
+        <v>522</v>
       </c>
       <c r="L70" t="s">
-        <v>455</v>
+        <v>523</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
       <c r="O70" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -7408,54 +8034,58 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>456</v>
+        <v>524</v>
       </c>
       <c r="X70" t="s">
-        <v>457</v>
+        <v>525</v>
       </c>
       <c r="Y70" t="s">
-        <v>458</v>
+        <v>526</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>37439</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>126232</v>
+      </c>
+      <c r="C71" t="s">
+        <v>527</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>459</v>
+        <v>528</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>460</v>
+        <v>529</v>
       </c>
       <c r="J71" t="s">
-        <v>461</v>
+        <v>530</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
       <c r="O71" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7477,54 +8107,58 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>462</v>
+        <v>531</v>
       </c>
       <c r="X71" t="s">
-        <v>463</v>
+        <v>532</v>
       </c>
       <c r="Y71" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>37439</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>85784</v>
+      </c>
+      <c r="C72" t="s">
+        <v>533</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>464</v>
+        <v>534</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>465</v>
+        <v>535</v>
       </c>
       <c r="J72" t="s">
-        <v>466</v>
+        <v>536</v>
       </c>
       <c r="K72" t="s"/>
       <c r="L72" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>467</v>
+        <v>537</v>
       </c>
       <c r="O72" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7546,54 +8180,58 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>468</v>
+        <v>538</v>
       </c>
       <c r="X72" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
       <c r="Y72" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>37439</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>33615</v>
+      </c>
+      <c r="C73" t="s">
+        <v>540</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>470</v>
+        <v>541</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>471</v>
+        <v>542</v>
       </c>
       <c r="J73" t="s">
-        <v>472</v>
+        <v>543</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M73" t="n">
         <v>2</v>
       </c>
       <c r="N73" t="s">
-        <v>467</v>
+        <v>537</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -7615,56 +8253,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>473</v>
+        <v>544</v>
       </c>
       <c r="X73" t="s">
-        <v>474</v>
+        <v>545</v>
       </c>
       <c r="Y73" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>37439</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>126233</v>
+      </c>
+      <c r="C74" t="s">
+        <v>546</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>475</v>
+        <v>547</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>476</v>
+        <v>548</v>
       </c>
       <c r="J74" t="s">
-        <v>477</v>
+        <v>549</v>
       </c>
       <c r="K74" t="s">
-        <v>478</v>
+        <v>550</v>
       </c>
       <c r="L74" t="s">
-        <v>479</v>
+        <v>551</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="O74" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7682,54 +8324,58 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>481</v>
+        <v>553</v>
       </c>
       <c r="X74" t="s">
-        <v>482</v>
+        <v>554</v>
       </c>
       <c r="Y74" t="s">
-        <v>483</v>
+        <v>555</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>37439</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>371</v>
+      </c>
+      <c r="C75" t="s">
+        <v>556</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>484</v>
+        <v>557</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>485</v>
+        <v>558</v>
       </c>
       <c r="J75" t="s">
-        <v>486</v>
+        <v>559</v>
       </c>
       <c r="K75" t="s"/>
       <c r="L75" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="O75" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7751,54 +8397,58 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>468</v>
+        <v>538</v>
       </c>
       <c r="X75" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
       <c r="Y75" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>37439</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>41399</v>
+      </c>
+      <c r="C76" t="s">
+        <v>560</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>487</v>
+        <v>561</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>488</v>
+        <v>562</v>
       </c>
       <c r="J76" t="s">
-        <v>489</v>
+        <v>563</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="O76" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7820,54 +8470,58 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>468</v>
+        <v>538</v>
       </c>
       <c r="X76" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
       <c r="Y76" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>37439</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>109173</v>
+      </c>
+      <c r="C77" t="s">
+        <v>564</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>490</v>
+        <v>565</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>491</v>
+        <v>566</v>
       </c>
       <c r="J77" t="s">
-        <v>492</v>
+        <v>567</v>
       </c>
       <c r="K77" t="s"/>
       <c r="L77" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="O77" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7889,56 +8543,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>493</v>
+        <v>568</v>
       </c>
       <c r="X77" t="s">
-        <v>494</v>
+        <v>569</v>
       </c>
       <c r="Y77" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>37439</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>126234</v>
+      </c>
+      <c r="C78" t="s">
+        <v>570</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>495</v>
+        <v>571</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>496</v>
+        <v>572</v>
       </c>
       <c r="J78" t="s">
-        <v>497</v>
+        <v>573</v>
       </c>
       <c r="K78" t="s">
-        <v>498</v>
+        <v>574</v>
       </c>
       <c r="L78" t="s">
-        <v>499</v>
+        <v>575</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>500</v>
+        <v>576</v>
       </c>
       <c r="O78" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="n">
@@ -7954,56 +8612,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>493</v>
+        <v>568</v>
       </c>
       <c r="X78" t="s">
-        <v>494</v>
+        <v>569</v>
       </c>
       <c r="Y78" t="s">
-        <v>501</v>
+        <v>577</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>37439</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>126235</v>
+      </c>
+      <c r="C79" t="s">
+        <v>578</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>502</v>
+        <v>579</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>503</v>
+        <v>580</v>
       </c>
       <c r="J79" t="s">
-        <v>504</v>
+        <v>581</v>
       </c>
       <c r="K79" t="s">
-        <v>505</v>
+        <v>582</v>
       </c>
       <c r="L79" t="s">
-        <v>506</v>
+        <v>583</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>500</v>
+        <v>576</v>
       </c>
       <c r="O79" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
@@ -8019,54 +8681,58 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>493</v>
+        <v>568</v>
       </c>
       <c r="X79" t="s">
-        <v>494</v>
+        <v>569</v>
       </c>
       <c r="Y79" t="s">
-        <v>507</v>
+        <v>584</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>37439</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>1845</v>
+      </c>
+      <c r="C80" t="s">
+        <v>585</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>508</v>
+        <v>586</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>509</v>
+        <v>587</v>
       </c>
       <c r="J80" t="s">
-        <v>510</v>
+        <v>588</v>
       </c>
       <c r="K80" t="s"/>
       <c r="L80" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>500</v>
+        <v>576</v>
       </c>
       <c r="O80" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -8088,56 +8754,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>468</v>
+        <v>538</v>
       </c>
       <c r="X80" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
       <c r="Y80" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>37439</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>126236</v>
+      </c>
+      <c r="C81" t="s">
+        <v>589</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>511</v>
+        <v>590</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>512</v>
+        <v>591</v>
       </c>
       <c r="J81" t="s">
-        <v>513</v>
+        <v>592</v>
       </c>
       <c r="K81" t="s">
-        <v>514</v>
+        <v>593</v>
       </c>
       <c r="L81" t="s">
-        <v>515</v>
+        <v>594</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>516</v>
+        <v>595</v>
       </c>
       <c r="O81" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -8155,56 +8825,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>493</v>
+        <v>568</v>
       </c>
       <c r="X81" t="s">
-        <v>494</v>
+        <v>569</v>
       </c>
       <c r="Y81" t="s">
-        <v>517</v>
+        <v>596</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>37439</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>126237</v>
+      </c>
+      <c r="C82" t="s">
+        <v>597</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>518</v>
+        <v>598</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>519</v>
+        <v>599</v>
       </c>
       <c r="J82" t="s">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K82" t="s">
-        <v>521</v>
+        <v>601</v>
       </c>
       <c r="L82" t="s">
-        <v>522</v>
+        <v>602</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>523</v>
+        <v>603</v>
       </c>
       <c r="O82" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8220,56 +8894,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>524</v>
+        <v>604</v>
       </c>
       <c r="X82" t="s">
-        <v>525</v>
+        <v>605</v>
       </c>
       <c r="Y82" t="s">
-        <v>526</v>
+        <v>606</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>37439</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>126238</v>
+      </c>
+      <c r="C83" t="s">
+        <v>607</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>527</v>
+        <v>608</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>528</v>
+        <v>609</v>
       </c>
       <c r="J83" t="s">
-        <v>529</v>
+        <v>610</v>
       </c>
       <c r="K83" t="s">
-        <v>530</v>
+        <v>611</v>
       </c>
       <c r="L83" t="s">
-        <v>531</v>
+        <v>612</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>532</v>
+        <v>613</v>
       </c>
       <c r="O83" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
@@ -8281,56 +8959,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>524</v>
+        <v>604</v>
       </c>
       <c r="X83" t="s">
-        <v>525</v>
+        <v>605</v>
       </c>
       <c r="Y83" t="s">
-        <v>533</v>
+        <v>614</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>37439</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>126239</v>
+      </c>
+      <c r="C84" t="s">
+        <v>615</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>534</v>
+        <v>616</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>535</v>
+        <v>617</v>
       </c>
       <c r="J84" t="s">
-        <v>536</v>
+        <v>618</v>
       </c>
       <c r="K84" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="L84" t="s">
-        <v>537</v>
+        <v>619</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>532</v>
+        <v>613</v>
       </c>
       <c r="O84" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="s"/>
@@ -8342,56 +9024,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>538</v>
+        <v>620</v>
       </c>
       <c r="X84" t="s">
-        <v>539</v>
+        <v>621</v>
       </c>
       <c r="Y84" t="s">
-        <v>540</v>
+        <v>622</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>37439</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>126240</v>
+      </c>
+      <c r="C85" t="s">
+        <v>623</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>541</v>
+        <v>624</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>542</v>
+        <v>625</v>
       </c>
       <c r="J85" t="s">
-        <v>543</v>
+        <v>626</v>
       </c>
       <c r="K85" t="s">
-        <v>544</v>
+        <v>627</v>
       </c>
       <c r="L85" t="s">
-        <v>545</v>
+        <v>628</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>532</v>
+        <v>613</v>
       </c>
       <c r="O85" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="n">
@@ -8409,56 +9095,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>538</v>
+        <v>620</v>
       </c>
       <c r="X85" t="s">
-        <v>539</v>
+        <v>621</v>
       </c>
       <c r="Y85" t="s">
-        <v>546</v>
+        <v>629</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>37439</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>126241</v>
+      </c>
+      <c r="C86" t="s">
+        <v>630</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>547</v>
+        <v>631</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>548</v>
+        <v>632</v>
       </c>
       <c r="J86" t="s">
-        <v>549</v>
+        <v>633</v>
       </c>
       <c r="K86" t="s">
-        <v>550</v>
+        <v>634</v>
       </c>
       <c r="L86" t="s">
-        <v>551</v>
+        <v>635</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>523</v>
+        <v>603</v>
       </c>
       <c r="O86" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="s"/>
@@ -8470,54 +9160,58 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>538</v>
+        <v>620</v>
       </c>
       <c r="X86" t="s">
-        <v>539</v>
+        <v>621</v>
       </c>
       <c r="Y86" t="s">
-        <v>552</v>
+        <v>636</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>37439</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>4263</v>
+      </c>
+      <c r="C87" t="s">
+        <v>637</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>553</v>
+        <v>638</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>554</v>
+        <v>639</v>
       </c>
       <c r="J87" t="s">
-        <v>555</v>
+        <v>640</v>
       </c>
       <c r="K87" t="s"/>
       <c r="L87" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>532</v>
+        <v>613</v>
       </c>
       <c r="O87" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8539,56 +9233,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>538</v>
+        <v>620</v>
       </c>
       <c r="X87" t="s">
-        <v>539</v>
+        <v>621</v>
       </c>
       <c r="Y87" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>37439</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>126242</v>
+      </c>
+      <c r="C88" t="s">
+        <v>641</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>556</v>
+        <v>642</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>557</v>
+        <v>643</v>
       </c>
       <c r="J88" t="s">
-        <v>558</v>
+        <v>644</v>
       </c>
       <c r="K88" t="s">
-        <v>559</v>
+        <v>645</v>
       </c>
       <c r="L88" t="s">
-        <v>560</v>
+        <v>646</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>523</v>
+        <v>603</v>
       </c>
       <c r="O88" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8606,56 +9304,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>538</v>
+        <v>620</v>
       </c>
       <c r="X88" t="s">
-        <v>539</v>
+        <v>621</v>
       </c>
       <c r="Y88" t="s">
-        <v>561</v>
+        <v>647</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>37439</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>126243</v>
+      </c>
+      <c r="C89" t="s">
+        <v>648</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>562</v>
+        <v>649</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>563</v>
+        <v>650</v>
       </c>
       <c r="J89" t="s">
-        <v>564</v>
+        <v>651</v>
       </c>
       <c r="K89" t="s">
-        <v>565</v>
+        <v>652</v>
       </c>
       <c r="L89" t="s">
-        <v>566</v>
+        <v>653</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>567</v>
+        <v>654</v>
       </c>
       <c r="O89" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="P89" t="s"/>
       <c r="Q89" t="s"/>
@@ -8673,50 +9375,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>568</v>
+        <v>655</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>37439</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>17864</v>
+      </c>
+      <c r="C90" t="s">
+        <v>656</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>569</v>
+        <v>657</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>570</v>
+        <v>658</v>
       </c>
       <c r="J90" t="s">
-        <v>571</v>
+        <v>659</v>
       </c>
       <c r="K90" t="s">
-        <v>572</v>
+        <v>660</v>
       </c>
       <c r="L90" t="s">
-        <v>573</v>
+        <v>661</v>
       </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
       <c r="N90" t="s">
-        <v>574</v>
+        <v>662</v>
       </c>
       <c r="O90" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P90" t="s"/>
       <c r="Q90" t="s"/>
@@ -8732,56 +9438,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>575</v>
+        <v>663</v>
       </c>
       <c r="X90" t="s">
-        <v>576</v>
+        <v>664</v>
       </c>
       <c r="Y90" t="s">
-        <v>577</v>
+        <v>665</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>37439</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>126244</v>
+      </c>
+      <c r="C91" t="s">
+        <v>666</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>578</v>
+        <v>667</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>579</v>
+        <v>668</v>
       </c>
       <c r="J91" t="s">
-        <v>580</v>
+        <v>669</v>
       </c>
       <c r="K91" t="s">
-        <v>581</v>
+        <v>670</v>
       </c>
       <c r="L91" t="s">
-        <v>582</v>
+        <v>671</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>583</v>
+        <v>672</v>
       </c>
       <c r="O91" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P91" t="s"/>
       <c r="Q91" t="s"/>
@@ -8795,50 +9505,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>582</v>
+        <v>671</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>37439</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>113785</v>
+      </c>
+      <c r="C92" t="s">
+        <v>673</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>584</v>
+        <v>674</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>585</v>
+        <v>675</v>
       </c>
       <c r="J92" t="s">
-        <v>586</v>
+        <v>676</v>
       </c>
       <c r="K92" t="s">
-        <v>587</v>
+        <v>677</v>
       </c>
       <c r="L92" t="s">
-        <v>588</v>
+        <v>678</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>589</v>
+        <v>679</v>
       </c>
       <c r="O92" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P92" t="s"/>
       <c r="Q92" t="n">
@@ -8858,50 +9572,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>588</v>
+        <v>678</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>37439</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>126245</v>
+      </c>
+      <c r="C93" t="s">
+        <v>680</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>590</v>
+        <v>681</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>591</v>
+        <v>682</v>
       </c>
       <c r="J93" t="s">
-        <v>592</v>
+        <v>683</v>
       </c>
       <c r="K93" t="s">
-        <v>593</v>
+        <v>684</v>
       </c>
       <c r="L93" t="s">
-        <v>594</v>
+        <v>685</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
       </c>
       <c r="N93" t="s">
-        <v>595</v>
+        <v>686</v>
       </c>
       <c r="O93" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P93" t="s"/>
       <c r="Q93" t="s"/>
@@ -8913,56 +9631,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>596</v>
+        <v>687</v>
       </c>
       <c r="X93" t="s">
-        <v>597</v>
+        <v>688</v>
       </c>
       <c r="Y93" t="s">
-        <v>598</v>
+        <v>689</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>37439</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>39726</v>
+      </c>
+      <c r="C94" t="s">
+        <v>690</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>599</v>
+        <v>691</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>600</v>
+        <v>692</v>
       </c>
       <c r="J94" t="s">
-        <v>601</v>
+        <v>693</v>
       </c>
       <c r="K94" t="s">
-        <v>602</v>
+        <v>694</v>
       </c>
       <c r="L94" t="s">
-        <v>603</v>
+        <v>695</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>604</v>
+        <v>696</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8986,50 +9708,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>605</v>
+        <v>697</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>37439</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>9032</v>
+      </c>
+      <c r="C95" t="s">
+        <v>698</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>606</v>
+        <v>699</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>607</v>
+        <v>700</v>
       </c>
       <c r="J95" t="s">
-        <v>608</v>
+        <v>701</v>
       </c>
       <c r="K95" t="s">
-        <v>609</v>
+        <v>702</v>
       </c>
       <c r="L95" t="s">
-        <v>610</v>
+        <v>703</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>611</v>
+        <v>704</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9053,50 +9779,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>610</v>
+        <v>703</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>37439</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>126246</v>
+      </c>
+      <c r="C96" t="s">
+        <v>705</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>612</v>
+        <v>706</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>613</v>
+        <v>707</v>
       </c>
       <c r="J96" t="s">
-        <v>614</v>
+        <v>708</v>
       </c>
       <c r="K96" t="s">
-        <v>615</v>
+        <v>709</v>
       </c>
       <c r="L96" t="s">
-        <v>616</v>
+        <v>710</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>617</v>
+        <v>711</v>
       </c>
       <c r="O96" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P96" t="n">
         <v>4</v>
@@ -9120,50 +9850,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>618</v>
+        <v>712</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>37439</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>13372</v>
+      </c>
+      <c r="C97" t="s">
+        <v>713</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>619</v>
+        <v>714</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>620</v>
+        <v>715</v>
       </c>
       <c r="J97" t="s">
-        <v>621</v>
+        <v>716</v>
       </c>
       <c r="K97" t="s">
-        <v>622</v>
+        <v>717</v>
       </c>
       <c r="L97" t="s">
-        <v>623</v>
+        <v>718</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>624</v>
+        <v>719</v>
       </c>
       <c r="O97" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P97" t="n">
         <v>4</v>
@@ -9185,56 +9919,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>625</v>
+        <v>720</v>
       </c>
       <c r="X97" t="s">
-        <v>626</v>
+        <v>721</v>
       </c>
       <c r="Y97" t="s">
-        <v>627</v>
+        <v>722</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>37439</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>126247</v>
+      </c>
+      <c r="C98" t="s">
+        <v>723</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>628</v>
+        <v>724</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>629</v>
+        <v>725</v>
       </c>
       <c r="J98" t="s">
-        <v>630</v>
+        <v>726</v>
       </c>
       <c r="K98" t="s">
-        <v>631</v>
+        <v>727</v>
       </c>
       <c r="L98" t="s">
-        <v>632</v>
+        <v>728</v>
       </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
       <c r="N98" t="s">
-        <v>633</v>
+        <v>729</v>
       </c>
       <c r="O98" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P98" t="s"/>
       <c r="Q98" t="s"/>
@@ -9246,56 +9984,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>634</v>
+        <v>730</v>
       </c>
       <c r="X98" t="s">
-        <v>635</v>
+        <v>731</v>
       </c>
       <c r="Y98" t="s">
-        <v>636</v>
+        <v>732</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>37439</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>126248</v>
+      </c>
+      <c r="C99" t="s">
+        <v>733</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>637</v>
+        <v>734</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>638</v>
+        <v>735</v>
       </c>
       <c r="J99" t="s">
-        <v>639</v>
+        <v>736</v>
       </c>
       <c r="K99" t="s">
-        <v>640</v>
+        <v>737</v>
       </c>
       <c r="L99" t="s">
-        <v>641</v>
+        <v>738</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>642</v>
+        <v>739</v>
       </c>
       <c r="O99" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9319,50 +10061,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>641</v>
+        <v>738</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>37439</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>126249</v>
+      </c>
+      <c r="C100" t="s">
+        <v>740</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>643</v>
+        <v>741</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>644</v>
+        <v>742</v>
       </c>
       <c r="J100" t="s">
-        <v>645</v>
+        <v>743</v>
       </c>
       <c r="K100" t="s">
-        <v>646</v>
+        <v>744</v>
       </c>
       <c r="L100" t="s">
-        <v>647</v>
+        <v>745</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>648</v>
+        <v>746</v>
       </c>
       <c r="O100" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9386,50 +10132,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>649</v>
+        <v>747</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>37439</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>2461</v>
+      </c>
+      <c r="C101" t="s">
+        <v>748</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>650</v>
+        <v>749</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>651</v>
+        <v>750</v>
       </c>
       <c r="J101" t="s">
-        <v>652</v>
+        <v>751</v>
       </c>
       <c r="K101" t="s">
-        <v>653</v>
+        <v>752</v>
       </c>
       <c r="L101" t="s">
-        <v>654</v>
+        <v>753</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>648</v>
+        <v>746</v>
       </c>
       <c r="O101" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9453,50 +10203,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>655</v>
+        <v>754</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>37439</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>126250</v>
+      </c>
+      <c r="C102" t="s">
+        <v>755</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>656</v>
+        <v>756</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>657</v>
+        <v>757</v>
       </c>
       <c r="J102" t="s">
-        <v>652</v>
+        <v>751</v>
       </c>
       <c r="K102" t="s">
-        <v>658</v>
+        <v>758</v>
       </c>
       <c r="L102" t="s">
-        <v>659</v>
+        <v>759</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>648</v>
+        <v>746</v>
       </c>
       <c r="O102" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -9520,50 +10274,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>659</v>
+        <v>759</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>37439</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>126251</v>
+      </c>
+      <c r="C103" t="s">
+        <v>760</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>660</v>
+        <v>761</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>661</v>
+        <v>762</v>
       </c>
       <c r="J103" t="s">
-        <v>662</v>
+        <v>763</v>
       </c>
       <c r="K103" t="s">
-        <v>663</v>
+        <v>764</v>
       </c>
       <c r="L103" t="s">
-        <v>664</v>
+        <v>765</v>
       </c>
       <c r="M103" t="n">
         <v>3</v>
       </c>
       <c r="N103" t="s">
-        <v>665</v>
+        <v>766</v>
       </c>
       <c r="O103" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P103" t="n">
         <v>3</v>
@@ -9585,56 +10343,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>666</v>
+        <v>767</v>
       </c>
       <c r="X103" t="s">
-        <v>667</v>
+        <v>768</v>
       </c>
       <c r="Y103" t="s">
-        <v>668</v>
+        <v>769</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>37439</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>23892</v>
+      </c>
+      <c r="C104" t="s">
+        <v>770</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>669</v>
+        <v>771</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>670</v>
+        <v>772</v>
       </c>
       <c r="J104" t="s">
-        <v>671</v>
+        <v>773</v>
       </c>
       <c r="K104" t="s">
-        <v>672</v>
+        <v>774</v>
       </c>
       <c r="L104" t="s">
-        <v>673</v>
+        <v>775</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>665</v>
+        <v>766</v>
       </c>
       <c r="O104" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9658,41 +10420,45 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>673</v>
+        <v>775</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>37439</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>605</v>
+      </c>
+      <c r="C105" t="s">
+        <v>776</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>674</v>
+        <v>777</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>675</v>
+        <v>778</v>
       </c>
       <c r="J105" t="s">
-        <v>676</v>
+        <v>779</v>
       </c>
       <c r="K105" t="s">
-        <v>677</v>
+        <v>780</v>
       </c>
       <c r="L105" t="s">
-        <v>678</v>
+        <v>781</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
@@ -9721,50 +10487,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>679</v>
+        <v>782</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>37439</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>26802</v>
+      </c>
+      <c r="C106" t="s">
+        <v>783</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>680</v>
+        <v>784</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>681</v>
+        <v>785</v>
       </c>
       <c r="J106" t="s">
-        <v>682</v>
+        <v>786</v>
       </c>
       <c r="K106" t="s">
-        <v>683</v>
+        <v>787</v>
       </c>
       <c r="L106" t="s">
-        <v>684</v>
+        <v>788</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>685</v>
+        <v>789</v>
       </c>
       <c r="O106" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -9788,50 +10558,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>684</v>
+        <v>788</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>37439</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>935</v>
+      </c>
+      <c r="C107" t="s">
+        <v>790</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>686</v>
+        <v>791</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>687</v>
+        <v>792</v>
       </c>
       <c r="J107" t="s">
-        <v>688</v>
+        <v>793</v>
       </c>
       <c r="K107" t="s">
-        <v>689</v>
+        <v>794</v>
       </c>
       <c r="L107" t="s">
-        <v>690</v>
+        <v>795</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>691</v>
+        <v>796</v>
       </c>
       <c r="O107" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9855,50 +10629,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>690</v>
+        <v>795</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>37439</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>11292</v>
+      </c>
+      <c r="C108" t="s">
+        <v>797</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>692</v>
+        <v>798</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>693</v>
+        <v>799</v>
       </c>
       <c r="J108" t="s">
-        <v>694</v>
+        <v>800</v>
       </c>
       <c r="K108" t="s">
-        <v>695</v>
+        <v>801</v>
       </c>
       <c r="L108" t="s">
-        <v>696</v>
+        <v>802</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>691</v>
+        <v>796</v>
       </c>
       <c r="O108" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -9922,50 +10700,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>696</v>
+        <v>802</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>37439</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>126252</v>
+      </c>
+      <c r="C109" t="s">
+        <v>803</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>697</v>
+        <v>804</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>698</v>
+        <v>805</v>
       </c>
       <c r="J109" t="s">
-        <v>699</v>
+        <v>806</v>
       </c>
       <c r="K109" t="s">
-        <v>700</v>
+        <v>807</v>
       </c>
       <c r="L109" t="s">
-        <v>701</v>
+        <v>808</v>
       </c>
       <c r="M109" t="n">
         <v>3</v>
       </c>
       <c r="N109" t="s">
-        <v>685</v>
+        <v>789</v>
       </c>
       <c r="O109" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -9989,50 +10771,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>702</v>
+        <v>809</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>37439</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>126253</v>
+      </c>
+      <c r="C110" t="s">
+        <v>810</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>703</v>
+        <v>811</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>704</v>
+        <v>812</v>
       </c>
       <c r="J110" t="s">
-        <v>705</v>
+        <v>813</v>
       </c>
       <c r="K110" t="s">
-        <v>706</v>
+        <v>814</v>
       </c>
       <c r="L110" t="s">
-        <v>707</v>
+        <v>815</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
       </c>
       <c r="N110" t="s">
-        <v>708</v>
+        <v>816</v>
       </c>
       <c r="O110" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -10056,50 +10842,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>707</v>
+        <v>815</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>37439</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>126254</v>
+      </c>
+      <c r="C111" t="s">
+        <v>817</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>709</v>
+        <v>818</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>710</v>
+        <v>819</v>
       </c>
       <c r="J111" t="s">
-        <v>711</v>
+        <v>820</v>
       </c>
       <c r="K111" t="s">
-        <v>712</v>
+        <v>821</v>
       </c>
       <c r="L111" t="s">
-        <v>713</v>
+        <v>822</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>714</v>
+        <v>823</v>
       </c>
       <c r="O111" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -10123,50 +10913,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>713</v>
+        <v>822</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>37439</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>6383</v>
+      </c>
+      <c r="C112" t="s">
+        <v>824</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>715</v>
+        <v>825</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>716</v>
+        <v>826</v>
       </c>
       <c r="J112" t="s">
-        <v>717</v>
+        <v>827</v>
       </c>
       <c r="K112" t="s">
-        <v>718</v>
+        <v>828</v>
       </c>
       <c r="L112" t="s">
-        <v>719</v>
+        <v>829</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
       </c>
       <c r="N112" t="s">
-        <v>720</v>
+        <v>830</v>
       </c>
       <c r="O112" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P112" t="n">
         <v>5</v>
@@ -10190,50 +10984,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>719</v>
+        <v>829</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>37439</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>126255</v>
+      </c>
+      <c r="C113" t="s">
+        <v>831</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>721</v>
+        <v>832</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="J113" t="s">
-        <v>723</v>
+        <v>834</v>
       </c>
       <c r="K113" t="s">
-        <v>724</v>
+        <v>835</v>
       </c>
       <c r="L113" t="s">
-        <v>725</v>
+        <v>836</v>
       </c>
       <c r="M113" t="n">
         <v>2</v>
       </c>
       <c r="N113" t="s">
-        <v>726</v>
+        <v>837</v>
       </c>
       <c r="O113" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P113" t="s"/>
       <c r="Q113" t="s"/>
@@ -10247,50 +11045,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>725</v>
+        <v>836</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>37439</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>28439</v>
+      </c>
+      <c r="C114" t="s">
+        <v>838</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>727</v>
+        <v>839</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>728</v>
+        <v>840</v>
       </c>
       <c r="J114" t="s">
-        <v>729</v>
+        <v>841</v>
       </c>
       <c r="K114" t="s">
-        <v>730</v>
+        <v>842</v>
       </c>
       <c r="L114" t="s">
-        <v>731</v>
+        <v>843</v>
       </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
       <c r="N114" t="s">
-        <v>726</v>
+        <v>837</v>
       </c>
       <c r="O114" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="P114" t="n">
         <v>1</v>
@@ -10314,50 +11116,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>731</v>
+        <v>843</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>37439</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>126256</v>
+      </c>
+      <c r="C115" t="s">
+        <v>844</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>732</v>
+        <v>845</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>733</v>
+        <v>846</v>
       </c>
       <c r="J115" t="s">
-        <v>734</v>
+        <v>847</v>
       </c>
       <c r="K115" t="s">
-        <v>735</v>
+        <v>848</v>
       </c>
       <c r="L115" t="s">
-        <v>736</v>
+        <v>849</v>
       </c>
       <c r="M115" t="n">
         <v>4</v>
       </c>
       <c r="N115" t="s">
-        <v>737</v>
+        <v>850</v>
       </c>
       <c r="O115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P115" t="n">
         <v>5</v>
@@ -10377,50 +11183,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>736</v>
+        <v>849</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>37439</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>126257</v>
+      </c>
+      <c r="C116" t="s">
+        <v>851</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>738</v>
+        <v>852</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>739</v>
+        <v>853</v>
       </c>
       <c r="J116" t="s">
-        <v>740</v>
+        <v>854</v>
       </c>
       <c r="K116" t="s">
-        <v>741</v>
+        <v>855</v>
       </c>
       <c r="L116" t="s">
-        <v>742</v>
+        <v>856</v>
       </c>
       <c r="M116" t="n">
         <v>5</v>
       </c>
       <c r="N116" t="s">
-        <v>743</v>
+        <v>857</v>
       </c>
       <c r="O116" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P116" t="n">
         <v>5</v>
@@ -10444,50 +11254,54 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>742</v>
+        <v>856</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>37439</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>126258</v>
+      </c>
+      <c r="C117" t="s">
+        <v>858</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>744</v>
+        <v>859</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>745</v>
+        <v>860</v>
       </c>
       <c r="J117" t="s">
-        <v>746</v>
+        <v>861</v>
       </c>
       <c r="K117" t="s">
-        <v>747</v>
+        <v>862</v>
       </c>
       <c r="L117" t="s">
-        <v>748</v>
+        <v>863</v>
       </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
       <c r="N117" t="s">
-        <v>749</v>
+        <v>864</v>
       </c>
       <c r="O117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P117" t="s"/>
       <c r="Q117" t="s"/>
@@ -10503,50 +11317,54 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>748</v>
+        <v>863</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>37439</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>126259</v>
+      </c>
+      <c r="C118" t="s">
+        <v>865</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>750</v>
+        <v>866</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>751</v>
+        <v>867</v>
       </c>
       <c r="J118" t="s">
-        <v>752</v>
+        <v>868</v>
       </c>
       <c r="K118" t="s">
-        <v>753</v>
+        <v>869</v>
       </c>
       <c r="L118" t="s">
-        <v>754</v>
+        <v>870</v>
       </c>
       <c r="M118" t="n">
         <v>3</v>
       </c>
       <c r="N118" t="s">
-        <v>755</v>
+        <v>871</v>
       </c>
       <c r="O118" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P118" t="n">
         <v>2</v>
@@ -10570,50 +11388,54 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>754</v>
+        <v>870</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>37439</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>126260</v>
+      </c>
+      <c r="C119" t="s">
+        <v>872</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>756</v>
+        <v>873</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>757</v>
+        <v>874</v>
       </c>
       <c r="J119" t="s">
-        <v>758</v>
+        <v>875</v>
       </c>
       <c r="K119" t="s">
-        <v>759</v>
+        <v>876</v>
       </c>
       <c r="L119" t="s">
-        <v>760</v>
+        <v>877</v>
       </c>
       <c r="M119" t="n">
         <v>4</v>
       </c>
       <c r="N119" t="s">
-        <v>761</v>
+        <v>878</v>
       </c>
       <c r="O119" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P119" t="n">
         <v>3</v>
@@ -10637,50 +11459,54 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>762</v>
+        <v>879</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>37439</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>126261</v>
+      </c>
+      <c r="C120" t="s">
+        <v>880</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>763</v>
+        <v>881</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>764</v>
+        <v>882</v>
       </c>
       <c r="J120" t="s">
-        <v>765</v>
+        <v>883</v>
       </c>
       <c r="K120" t="s">
-        <v>766</v>
+        <v>884</v>
       </c>
       <c r="L120" t="s">
-        <v>767</v>
+        <v>885</v>
       </c>
       <c r="M120" t="n">
         <v>5</v>
       </c>
       <c r="N120" t="s">
-        <v>768</v>
+        <v>886</v>
       </c>
       <c r="O120" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P120" t="n">
         <v>5</v>
@@ -10704,50 +11530,54 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>767</v>
+        <v>885</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>37439</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>126262</v>
+      </c>
+      <c r="C121" t="s">
+        <v>887</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>769</v>
+        <v>888</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>770</v>
+        <v>889</v>
       </c>
       <c r="J121" t="s">
-        <v>771</v>
+        <v>890</v>
       </c>
       <c r="K121" t="s">
-        <v>772</v>
+        <v>891</v>
       </c>
       <c r="L121" t="s">
-        <v>773</v>
+        <v>892</v>
       </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
       <c r="N121" t="s">
-        <v>774</v>
+        <v>893</v>
       </c>
       <c r="O121" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P121" t="n">
         <v>2</v>
@@ -10771,7 +11601,7 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>775</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>
